--- a/analysis result/Part 1 Excel_Azamat.xlsx
+++ b/analysis result/Part 1 Excel_Azamat.xlsx
@@ -3,13 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2569A8-7E79-EB4D-819E-4A70BC847CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5186365-4002-804C-A828-E2A62EB55D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="460" windowWidth="23280" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="-2280" windowWidth="29200" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear Regression" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Linear Regression'!$C$2:$C$230</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Linear Regression'!$D$2:$D$230</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -80,12 +107,28 @@
   <si>
     <t xml:space="preserve">Add a trendline to the graph (linear) </t>
   </si>
+  <si>
+    <t>slope</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>intercepy</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JPM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SP500</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +177,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック (本文)"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -469,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,6 +571,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -3663,6 +3713,7 @@
         <c:axId val="531521648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3835,7 +3886,1790 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>S&amp;P 500 VS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> JPM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="41275" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10593591426071741"/>
+                  <c:y val="-0.21591936424613589"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear Regression'!$C$2:$C$230</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="229"/>
+                <c:pt idx="0">
+                  <c:v>2821.9799800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2762.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2648.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2695.139893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2681.6599120000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2619.5500489999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2662.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2698.6298830000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2731.1999510000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2732.219971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2716.26001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2701.330078</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2703.959961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2747.3000489999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2779.6000979999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2744.280029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2713.830078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2677.669922</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2691.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2720.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2728.1201169999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2726.8000489999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2738.969971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2786.570068</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2783.0200199999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2765.3100589999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2749.4799800000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2747.330078</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2752.01001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2712.919922</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2716.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2711.929932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2643.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2588.26001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2658.5500489999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2612.6201169999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2640.8701169999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2581.8798830000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2614.4499510000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2644.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2662.8400879999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2604.469971</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2613.1599120000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2656.8701169999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2642.1899410000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2663.98999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2656.3000489999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2677.8400879999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2706.389893</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2708.639893</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2693.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2670.139893</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2670.290039</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2634.5600589999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2639.3999020000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2666.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2669.9099120000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2648.0500489999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2654.8000489999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2635.669922</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2629.7299800000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2663.419922</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2672.6298830000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2671.919922</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2697.790039</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2723.070068</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2727.719971</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2730.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2711.4499510000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2722.459961</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2720.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2712.969971</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2733.01001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2724.4399410000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2733.290039</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2727.76001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2721.330078</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2689.860107</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2724.01001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2705.2700199999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2734.6201169999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2746.8701169999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2748.8000489999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2772.3500979999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2770.3701169999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2779.030029</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2786.8500979999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2775.6298830000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2782.48999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2779.6599120000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2773.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2762.5900879999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2767.320068</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2749.76001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2754.8798830000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2717.070068</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2723.0600589999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2699.6298830000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2716.3100589999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2718.3701169999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2726.709961</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2713.219971</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2736.610107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2759.820068</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2784.169922</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2793.8400879999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2774.0200199999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2798.290039</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2801.3100589999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2798.429932</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2809.5500489999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2815.6201169999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2804.48999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2801.830078</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2806.9799800000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2820.3999020000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2846.070068</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2837.4399410000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2818.820068</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2802.6000979999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2816.290039</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2813.360107</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2827.219971</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2840.3500979999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2850.3999020000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2858.4499510000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2857.6999510000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2853.580078</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2833.280029</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2821.929932</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2839.959961</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2818.3701169999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2840.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2850.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2857.0500489999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2862.959961</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2861.820068</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2856.9799800000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2874.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2896.73999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2897.5200199999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2914.040039</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2901.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2901.5200199999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2896.719971</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2888.6000979999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2878.0500489999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2871.679932</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2877.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2887.889893</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2888.919922</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2904.179932</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2904.9799800000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2888.8000489999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2904.3100589999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2907.9499510000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2930.75</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2929.669922</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2919.3701169999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2915.5600589999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2905.969971</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2913.9799800000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2924.5900879999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2923.429932</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2925.51001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2901.610107</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2885.570068</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2884.429932</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2880.3400879999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2785.679932</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2728.3701169999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2767.1298830000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2750.790039</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2809.919922</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2809.209961</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2768.780029</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2767.780029</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2755.8798830000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2740.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2656.1000979999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2705.570068</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2658.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2641.25</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2682.6298830000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2711.73999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2740.3701169999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2723.0600589999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2738.3100589999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2755.4499510000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2813.889893</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2806.830078</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2781.01001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2726.219971</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2722.179932</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2701.580078</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2730.1999510000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2736.2700199999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2690.7299800000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2641.889893</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2649.929932</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2632.5600589999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2673.4499510000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2682.169922</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2743.790039</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2737.8000489999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2760.169922</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2790.3701169999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2700.0600589999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2695.9499510000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2633.080078</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2637.719971</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2636.780029</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2651.070068</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2650.540039</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2599.9499510000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2545.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2546.1599120000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2506.959961</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2467.419922</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2416.6201169999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2351.1000979999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2467.6999510000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2488.830078</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2485.73999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear Regression'!$D$2:$D$230</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="229"/>
+                <c:pt idx="0">
+                  <c:v>111.370407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.902283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.680161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.83440400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.55864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.80345199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.86180899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.481804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.139343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.616997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.07440200000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.28346999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109.31205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.769463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109.569351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.789703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.181</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.837341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110.06488</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>108.092293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107.98745700000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109.645584</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>109.740883</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109.33111599999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.34064499999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>112.48535200000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112.123238</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110.779579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>109.540756</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109.817108</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110.007698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>109.140518</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109.245338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>109.34064499999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104.77604700000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101.974388</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.119095</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>103.079803</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>102.91780900000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>104.79510500000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>102.77486399999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>104.185219</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105.767105</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>107.155869</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104.483673</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105.738365</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>107.75927</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105.94908100000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>108.58296199999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105.64259300000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105.55639600000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>105.55639600000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104.703964</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>107.00263200000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>106.763176</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>106.24599499999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>105.74794799999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>105.34568</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>105.451035</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>104.78059399999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>104.186775</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>104.186775</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>103.36307499999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>102.7118</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>103.851547</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104.751862</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>106.303459</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>108.621269</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>109.464119</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>109.052269</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>109.09058400000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>108.257301</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>108.554222</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>108.190269</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>106.437538</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>107.414474</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>108.238152</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>107.740112</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>106.53331799999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>105.987404</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>101.457115</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>103.774933</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>102.491508</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>103.82281500000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>103.870705</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>103.286461</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>105.70005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>106.121475</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>106.41838799999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>106.15020800000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>105.537239</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>105.32653000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>103.468445</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103.343925</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>103.612099</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>103.008713</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>102.99912999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102.970398</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>101.284706</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.36525</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100.432289</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>98.880699000000007</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>100.499336</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>99.800147999999993</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>100.643005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>99.235077000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>99.880272000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>100.20768</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>103.308464</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>102.67291299999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>102.451424</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>102.89439400000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>102.422546</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>106.486313</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>106.409279</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>107.401138</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>105.82184599999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>107.160393</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>109.153763</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>109.924156</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>110.916031</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>110.598236</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>111.73455</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>112.408646</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>110.694534</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>111.37824999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.85011299999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>112.75530999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>112.78420300000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>113.19828800000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>113.429405</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>112.553078</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>111.445663</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>109.673767</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>110.405647</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>109.490814</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>110.52119399999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>110.52119399999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>110.376755</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>111.050827</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>110.71379899999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>110.48268899999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>110.43452499999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>112.389381</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>111.84047700000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>111.474548</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>110.925659</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>110.338234</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>110.88713799999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>110.347855</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>109.87599899999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>110.087852</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>109.500443</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>110.193787</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>108.893761</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>109.317474</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>109.29821</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>109.62563299999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>110.068596</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>113.26570100000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>114.23828899999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>113.48717499999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>112.39901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>112.08123000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>110.761948</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>110.280449</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>108.662643</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>109.29821</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>109.750809</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>110.781204</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>111.78001399999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>111.14969600000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>111.82849899999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>111.052719</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>108.09507000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>104.85618599999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>103.71191399999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>103.120377</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>105.331352</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>106.504723</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>104.817398</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>104.64284499999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>103.139786</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>102.063393</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>100.162727</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>101.685204</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>100.288788</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>101.675499</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>103.469482</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>105.71923099999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>105.680458</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>105.098618</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>105.78711699999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>106.281685</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>108.104767</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>108.97751599999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>107.920509</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>105.65136</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>106.27198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>104.080414</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>106.73745700000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>106.659882</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>107.474442</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>105.166496</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>104.38102000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>103.420998</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>105.951981</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>106.398048</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>107.58111599999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>106.72775300000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>107.823547</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>108.841751</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>103.98344400000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>102.005211</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>100.162727</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>98.291167999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>97.331146000000004</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>97.961455999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>98.058425999999997</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>97.253563</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>96.012305999999995</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>95.556540999999996</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>94.344391000000002</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>93.529815999999997</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>91.318848000000003</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>89.350311000000005</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>93.054665</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>94.101951999999997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>93.898323000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BCC-C245-ADBF-228685ED3602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067137631"/>
+        <c:axId val="1040105023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067137631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+          <c:min val="2300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040105023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1040105023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067137631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4391,6 +6225,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4401,8 +6751,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -4412,6 +6762,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0369E2-F6E0-4A24-AA93-3D844112CF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAD498E-4751-AA45-BBCA-A2867980966E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4697,8 +7088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -11009,4 +13400,2571 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BDB1D9-57C9-6D49-94A9-A5FDD226A182}">
+  <dimension ref="B1:H230"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19" thickBot="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="5">
+        <v>43132</v>
+      </c>
+      <c r="C2" s="30">
+        <v>2821.9799800000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>111.370407</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="5">
+        <v>43133</v>
+      </c>
+      <c r="C3" s="30">
+        <v>2762.1298830000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>108.902283</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="5">
+        <v>43136</v>
+      </c>
+      <c r="C4" s="30">
+        <v>2648.9399410000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>103.680161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="5">
+        <v>43137</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2695.139893</v>
+      </c>
+      <c r="D5" s="6">
+        <v>106.83440400000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5">
+        <v>43138</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2681.6599120000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>107.55864</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="5">
+        <v>43139</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2581</v>
+      </c>
+      <c r="D7" s="6">
+        <v>102.80345199999999</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7:H7">LINEST(D2:D230,C2:C230)</f>
+        <v>3.3794666814901737E-2</v>
+      </c>
+      <c r="H7">
+        <v>13.641947024172396</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="5">
+        <v>43140</v>
+      </c>
+      <c r="C8" s="30">
+        <v>2619.5500489999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>104.86180899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5">
+        <v>43143</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2656</v>
+      </c>
+      <c r="D9" s="6">
+        <v>106.481804</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5">
+        <v>43144</v>
+      </c>
+      <c r="C10" s="30">
+        <v>2662.9399410000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>107.139343</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5">
+        <v>43145</v>
+      </c>
+      <c r="C11" s="30">
+        <v>2698.6298830000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>109.616997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5">
+        <v>43146</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2731.1999510000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>110.07440200000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5">
+        <v>43147</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2732.219971</v>
+      </c>
+      <c r="D13" s="6">
+        <v>109.28346999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="5">
+        <v>43151</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2716.26001</v>
+      </c>
+      <c r="D14" s="6">
+        <v>109.31205</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5">
+        <v>43152</v>
+      </c>
+      <c r="C15" s="30">
+        <v>2701.330078</v>
+      </c>
+      <c r="D15" s="6">
+        <v>109.769463</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5">
+        <v>43153</v>
+      </c>
+      <c r="C16" s="30">
+        <v>2703.959961</v>
+      </c>
+      <c r="D16" s="6">
+        <v>109.569351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5">
+        <v>43154</v>
+      </c>
+      <c r="C17" s="30">
+        <v>2747.3000489999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>111.789703</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5">
+        <v>43157</v>
+      </c>
+      <c r="C18" s="30">
+        <v>2779.6000979999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>113.181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5">
+        <v>43158</v>
+      </c>
+      <c r="C19" s="30">
+        <v>2744.280029</v>
+      </c>
+      <c r="D19" s="6">
+        <v>111.837341</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="5">
+        <v>43159</v>
+      </c>
+      <c r="C20" s="30">
+        <v>2713.830078</v>
+      </c>
+      <c r="D20" s="6">
+        <v>110.06488</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="5">
+        <v>43160</v>
+      </c>
+      <c r="C21" s="30">
+        <v>2677.669922</v>
+      </c>
+      <c r="D21" s="6">
+        <v>108.092293</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="5">
+        <v>43161</v>
+      </c>
+      <c r="C22" s="30">
+        <v>2691.25</v>
+      </c>
+      <c r="D22" s="6">
+        <v>107.98745700000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="5">
+        <v>43164</v>
+      </c>
+      <c r="C23" s="30">
+        <v>2720.9399410000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>109.645584</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="5">
+        <v>43165</v>
+      </c>
+      <c r="C24" s="30">
+        <v>2728.1201169999999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>109.740883</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="5">
+        <v>43166</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2726.8000489999999</v>
+      </c>
+      <c r="D25" s="6">
+        <v>109.33111599999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="5">
+        <v>43167</v>
+      </c>
+      <c r="C26" s="30">
+        <v>2738.969971</v>
+      </c>
+      <c r="D26" s="6">
+        <v>109.34064499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="5">
+        <v>43168</v>
+      </c>
+      <c r="C27" s="30">
+        <v>2786.570068</v>
+      </c>
+      <c r="D27" s="6">
+        <v>112.48535200000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="5">
+        <v>43171</v>
+      </c>
+      <c r="C28" s="30">
+        <v>2783.0200199999999</v>
+      </c>
+      <c r="D28" s="6">
+        <v>112.123238</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="5">
+        <v>43172</v>
+      </c>
+      <c r="C29" s="30">
+        <v>2765.3100589999999</v>
+      </c>
+      <c r="D29" s="6">
+        <v>110.779579</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="5">
+        <v>43173</v>
+      </c>
+      <c r="C30" s="30">
+        <v>2749.4799800000001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>109.540756</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C31" s="30">
+        <v>2747.330078</v>
+      </c>
+      <c r="D31" s="6">
+        <v>109.817108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="5">
+        <v>43175</v>
+      </c>
+      <c r="C32" s="30">
+        <v>2752.01001</v>
+      </c>
+      <c r="D32" s="6">
+        <v>110.007698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="5">
+        <v>43178</v>
+      </c>
+      <c r="C33" s="30">
+        <v>2712.919922</v>
+      </c>
+      <c r="D33" s="6">
+        <v>109.140518</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="5">
+        <v>43179</v>
+      </c>
+      <c r="C34" s="30">
+        <v>2716.9399410000001</v>
+      </c>
+      <c r="D34" s="6">
+        <v>109.245338</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="5">
+        <v>43180</v>
+      </c>
+      <c r="C35" s="30">
+        <v>2711.929932</v>
+      </c>
+      <c r="D35" s="6">
+        <v>109.34064499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="5">
+        <v>43181</v>
+      </c>
+      <c r="C36" s="30">
+        <v>2643.6899410000001</v>
+      </c>
+      <c r="D36" s="6">
+        <v>104.77604700000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="5">
+        <v>43182</v>
+      </c>
+      <c r="C37" s="30">
+        <v>2588.26001</v>
+      </c>
+      <c r="D37" s="6">
+        <v>101.974388</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="5">
+        <v>43185</v>
+      </c>
+      <c r="C38" s="30">
+        <v>2658.5500489999999</v>
+      </c>
+      <c r="D38" s="6">
+        <v>105.119095</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="5">
+        <v>43186</v>
+      </c>
+      <c r="C39" s="30">
+        <v>2612.6201169999999</v>
+      </c>
+      <c r="D39" s="6">
+        <v>103.079803</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="5">
+        <v>43187</v>
+      </c>
+      <c r="C40" s="30">
+        <v>2605</v>
+      </c>
+      <c r="D40" s="6">
+        <v>102.91780900000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="5">
+        <v>43188</v>
+      </c>
+      <c r="C41" s="30">
+        <v>2640.8701169999999</v>
+      </c>
+      <c r="D41" s="6">
+        <v>104.79510500000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="5">
+        <v>43192</v>
+      </c>
+      <c r="C42" s="30">
+        <v>2581.8798830000001</v>
+      </c>
+      <c r="D42" s="6">
+        <v>102.77486399999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="5">
+        <v>43193</v>
+      </c>
+      <c r="C43" s="30">
+        <v>2614.4499510000001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>104.185219</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="5">
+        <v>43194</v>
+      </c>
+      <c r="C44" s="30">
+        <v>2644.6899410000001</v>
+      </c>
+      <c r="D44" s="6">
+        <v>105.767105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="5">
+        <v>43195</v>
+      </c>
+      <c r="C45" s="30">
+        <v>2662.8400879999999</v>
+      </c>
+      <c r="D45" s="6">
+        <v>107.155869</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="5">
+        <v>43196</v>
+      </c>
+      <c r="C46" s="30">
+        <v>2604.469971</v>
+      </c>
+      <c r="D46" s="6">
+        <v>104.483673</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="5">
+        <v>43199</v>
+      </c>
+      <c r="C47" s="30">
+        <v>2613.1599120000001</v>
+      </c>
+      <c r="D47" s="6">
+        <v>105.738365</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="5">
+        <v>43200</v>
+      </c>
+      <c r="C48" s="30">
+        <v>2656.8701169999999</v>
+      </c>
+      <c r="D48" s="6">
+        <v>107.75927</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="5">
+        <v>43201</v>
+      </c>
+      <c r="C49" s="30">
+        <v>2642.1899410000001</v>
+      </c>
+      <c r="D49" s="6">
+        <v>105.94908100000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="5">
+        <v>43202</v>
+      </c>
+      <c r="C50" s="30">
+        <v>2663.98999</v>
+      </c>
+      <c r="D50" s="6">
+        <v>108.58296199999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="5">
+        <v>43203</v>
+      </c>
+      <c r="C51" s="30">
+        <v>2656.3000489999999</v>
+      </c>
+      <c r="D51" s="6">
+        <v>105.64259300000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="5">
+        <v>43206</v>
+      </c>
+      <c r="C52" s="30">
+        <v>2677.8400879999999</v>
+      </c>
+      <c r="D52" s="6">
+        <v>105.55639600000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="5">
+        <v>43207</v>
+      </c>
+      <c r="C53" s="30">
+        <v>2706.389893</v>
+      </c>
+      <c r="D53" s="6">
+        <v>105.55639600000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="5">
+        <v>43208</v>
+      </c>
+      <c r="C54" s="30">
+        <v>2708.639893</v>
+      </c>
+      <c r="D54" s="6">
+        <v>104.703964</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="5">
+        <v>43209</v>
+      </c>
+      <c r="C55" s="30">
+        <v>2693.1298830000001</v>
+      </c>
+      <c r="D55" s="6">
+        <v>107.00263200000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="5">
+        <v>43210</v>
+      </c>
+      <c r="C56" s="30">
+        <v>2670.139893</v>
+      </c>
+      <c r="D56" s="6">
+        <v>106.763176</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="5">
+        <v>43213</v>
+      </c>
+      <c r="C57" s="30">
+        <v>2670.290039</v>
+      </c>
+      <c r="D57" s="6">
+        <v>106.24599499999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="5">
+        <v>43214</v>
+      </c>
+      <c r="C58" s="30">
+        <v>2634.5600589999999</v>
+      </c>
+      <c r="D58" s="6">
+        <v>105.74794799999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="5">
+        <v>43215</v>
+      </c>
+      <c r="C59" s="30">
+        <v>2639.3999020000001</v>
+      </c>
+      <c r="D59" s="6">
+        <v>105.34568</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="5">
+        <v>43216</v>
+      </c>
+      <c r="C60" s="30">
+        <v>2666.9399410000001</v>
+      </c>
+      <c r="D60" s="6">
+        <v>105.451035</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="5">
+        <v>43217</v>
+      </c>
+      <c r="C61" s="30">
+        <v>2669.9099120000001</v>
+      </c>
+      <c r="D61" s="6">
+        <v>104.78059399999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="5">
+        <v>43220</v>
+      </c>
+      <c r="C62" s="30">
+        <v>2648.0500489999999</v>
+      </c>
+      <c r="D62" s="6">
+        <v>104.186775</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="5">
+        <v>43221</v>
+      </c>
+      <c r="C63" s="30">
+        <v>2654.8000489999999</v>
+      </c>
+      <c r="D63" s="6">
+        <v>104.186775</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="5">
+        <v>43222</v>
+      </c>
+      <c r="C64" s="30">
+        <v>2635.669922</v>
+      </c>
+      <c r="D64" s="6">
+        <v>103.36307499999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="5">
+        <v>43223</v>
+      </c>
+      <c r="C65" s="30">
+        <v>2629.7299800000001</v>
+      </c>
+      <c r="D65" s="6">
+        <v>102.7118</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="5">
+        <v>43224</v>
+      </c>
+      <c r="C66" s="30">
+        <v>2663.419922</v>
+      </c>
+      <c r="D66" s="6">
+        <v>103.851547</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="5">
+        <v>43227</v>
+      </c>
+      <c r="C67" s="30">
+        <v>2672.6298830000001</v>
+      </c>
+      <c r="D67" s="6">
+        <v>104.751862</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="5">
+        <v>43228</v>
+      </c>
+      <c r="C68" s="30">
+        <v>2671.919922</v>
+      </c>
+      <c r="D68" s="6">
+        <v>106.303459</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="5">
+        <v>43229</v>
+      </c>
+      <c r="C69" s="30">
+        <v>2697.790039</v>
+      </c>
+      <c r="D69" s="6">
+        <v>108.621269</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="5">
+        <v>43230</v>
+      </c>
+      <c r="C70" s="30">
+        <v>2723.070068</v>
+      </c>
+      <c r="D70" s="6">
+        <v>109.464119</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="5">
+        <v>43231</v>
+      </c>
+      <c r="C71" s="30">
+        <v>2727.719971</v>
+      </c>
+      <c r="D71" s="6">
+        <v>109.052269</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="5">
+        <v>43234</v>
+      </c>
+      <c r="C72" s="30">
+        <v>2730.1298830000001</v>
+      </c>
+      <c r="D72" s="6">
+        <v>109.09058400000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="5">
+        <v>43235</v>
+      </c>
+      <c r="C73" s="30">
+        <v>2711.4499510000001</v>
+      </c>
+      <c r="D73" s="6">
+        <v>108.257301</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="5">
+        <v>43236</v>
+      </c>
+      <c r="C74" s="30">
+        <v>2722.459961</v>
+      </c>
+      <c r="D74" s="6">
+        <v>108.554222</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="5">
+        <v>43237</v>
+      </c>
+      <c r="C75" s="30">
+        <v>2720.1298830000001</v>
+      </c>
+      <c r="D75" s="6">
+        <v>108.190269</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="5">
+        <v>43238</v>
+      </c>
+      <c r="C76" s="30">
+        <v>2712.969971</v>
+      </c>
+      <c r="D76" s="6">
+        <v>106.437538</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="5">
+        <v>43241</v>
+      </c>
+      <c r="C77" s="30">
+        <v>2733.01001</v>
+      </c>
+      <c r="D77" s="6">
+        <v>107.414474</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="5">
+        <v>43242</v>
+      </c>
+      <c r="C78" s="30">
+        <v>2724.4399410000001</v>
+      </c>
+      <c r="D78" s="6">
+        <v>108.238152</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="5">
+        <v>43243</v>
+      </c>
+      <c r="C79" s="30">
+        <v>2733.290039</v>
+      </c>
+      <c r="D79" s="6">
+        <v>107.740112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="5">
+        <v>43244</v>
+      </c>
+      <c r="C80" s="30">
+        <v>2727.76001</v>
+      </c>
+      <c r="D80" s="6">
+        <v>106.53331799999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="5">
+        <v>43245</v>
+      </c>
+      <c r="C81" s="30">
+        <v>2721.330078</v>
+      </c>
+      <c r="D81" s="6">
+        <v>105.987404</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="5">
+        <v>43249</v>
+      </c>
+      <c r="C82" s="30">
+        <v>2689.860107</v>
+      </c>
+      <c r="D82" s="6">
+        <v>101.457115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="5">
+        <v>43250</v>
+      </c>
+      <c r="C83" s="30">
+        <v>2724.01001</v>
+      </c>
+      <c r="D83" s="6">
+        <v>103.774933</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="5">
+        <v>43251</v>
+      </c>
+      <c r="C84" s="30">
+        <v>2705.2700199999999</v>
+      </c>
+      <c r="D84" s="6">
+        <v>102.491508</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="5">
+        <v>43252</v>
+      </c>
+      <c r="C85" s="30">
+        <v>2734.6201169999999</v>
+      </c>
+      <c r="D85" s="6">
+        <v>103.82281500000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="5">
+        <v>43255</v>
+      </c>
+      <c r="C86" s="30">
+        <v>2746.8701169999999</v>
+      </c>
+      <c r="D86" s="6">
+        <v>103.870705</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="5">
+        <v>43256</v>
+      </c>
+      <c r="C87" s="30">
+        <v>2748.8000489999999</v>
+      </c>
+      <c r="D87" s="6">
+        <v>103.286461</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="5">
+        <v>43257</v>
+      </c>
+      <c r="C88" s="30">
+        <v>2772.3500979999999</v>
+      </c>
+      <c r="D88" s="6">
+        <v>105.70005</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="5">
+        <v>43258</v>
+      </c>
+      <c r="C89" s="30">
+        <v>2770.3701169999999</v>
+      </c>
+      <c r="D89" s="6">
+        <v>106.121475</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="5">
+        <v>43259</v>
+      </c>
+      <c r="C90" s="30">
+        <v>2779.030029</v>
+      </c>
+      <c r="D90" s="6">
+        <v>106.41838799999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C91" s="30">
+        <v>2782</v>
+      </c>
+      <c r="D91" s="6">
+        <v>106.15020800000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="5">
+        <v>43263</v>
+      </c>
+      <c r="C92" s="30">
+        <v>2786.8500979999999</v>
+      </c>
+      <c r="D92" s="6">
+        <v>105.537239</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="5">
+        <v>43264</v>
+      </c>
+      <c r="C93" s="30">
+        <v>2775.6298830000001</v>
+      </c>
+      <c r="D93" s="6">
+        <v>105.32653000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="5">
+        <v>43265</v>
+      </c>
+      <c r="C94" s="30">
+        <v>2782.48999</v>
+      </c>
+      <c r="D94" s="6">
+        <v>103.468445</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="5">
+        <v>43266</v>
+      </c>
+      <c r="C95" s="30">
+        <v>2779.6599120000001</v>
+      </c>
+      <c r="D95" s="6">
+        <v>103.343925</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="5">
+        <v>43269</v>
+      </c>
+      <c r="C96" s="30">
+        <v>2773.75</v>
+      </c>
+      <c r="D96" s="6">
+        <v>103.612099</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="5">
+        <v>43270</v>
+      </c>
+      <c r="C97" s="30">
+        <v>2762.5900879999999</v>
+      </c>
+      <c r="D97" s="6">
+        <v>103.008713</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="5">
+        <v>43271</v>
+      </c>
+      <c r="C98" s="30">
+        <v>2767.320068</v>
+      </c>
+      <c r="D98" s="6">
+        <v>102.99912999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="5">
+        <v>43272</v>
+      </c>
+      <c r="C99" s="30">
+        <v>2749.76001</v>
+      </c>
+      <c r="D99" s="6">
+        <v>102.970398</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="5">
+        <v>43273</v>
+      </c>
+      <c r="C100" s="30">
+        <v>2754.8798830000001</v>
+      </c>
+      <c r="D100" s="6">
+        <v>101.284706</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="5">
+        <v>43276</v>
+      </c>
+      <c r="C101" s="30">
+        <v>2717.070068</v>
+      </c>
+      <c r="D101" s="6">
+        <v>100.36525</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="5">
+        <v>43277</v>
+      </c>
+      <c r="C102" s="30">
+        <v>2723.0600589999999</v>
+      </c>
+      <c r="D102" s="6">
+        <v>100.432289</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="5">
+        <v>43278</v>
+      </c>
+      <c r="C103" s="30">
+        <v>2699.6298830000001</v>
+      </c>
+      <c r="D103" s="6">
+        <v>98.880699000000007</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="5">
+        <v>43279</v>
+      </c>
+      <c r="C104" s="30">
+        <v>2716.3100589999999</v>
+      </c>
+      <c r="D104" s="6">
+        <v>100.499336</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="5">
+        <v>43280</v>
+      </c>
+      <c r="C105" s="30">
+        <v>2718.3701169999999</v>
+      </c>
+      <c r="D105" s="6">
+        <v>99.800147999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="5">
+        <v>43283</v>
+      </c>
+      <c r="C106" s="30">
+        <v>2726.709961</v>
+      </c>
+      <c r="D106" s="6">
+        <v>100.643005</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="5">
+        <v>43284</v>
+      </c>
+      <c r="C107" s="30">
+        <v>2713.219971</v>
+      </c>
+      <c r="D107" s="6">
+        <v>99.235077000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="5">
+        <v>43286</v>
+      </c>
+      <c r="C108" s="30">
+        <v>2736.610107</v>
+      </c>
+      <c r="D108" s="6">
+        <v>99.880272000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="5">
+        <v>43287</v>
+      </c>
+      <c r="C109" s="30">
+        <v>2759.820068</v>
+      </c>
+      <c r="D109" s="6">
+        <v>100.20768</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="5">
+        <v>43290</v>
+      </c>
+      <c r="C110" s="30">
+        <v>2784.169922</v>
+      </c>
+      <c r="D110" s="6">
+        <v>103.308464</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="5">
+        <v>43291</v>
+      </c>
+      <c r="C111" s="30">
+        <v>2793.8400879999999</v>
+      </c>
+      <c r="D111" s="6">
+        <v>102.67291299999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="5">
+        <v>43292</v>
+      </c>
+      <c r="C112" s="30">
+        <v>2774.0200199999999</v>
+      </c>
+      <c r="D112" s="6">
+        <v>102.451424</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="5">
+        <v>43293</v>
+      </c>
+      <c r="C113" s="30">
+        <v>2798.290039</v>
+      </c>
+      <c r="D113" s="6">
+        <v>102.89439400000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="5">
+        <v>43294</v>
+      </c>
+      <c r="C114" s="30">
+        <v>2801.3100589999999</v>
+      </c>
+      <c r="D114" s="6">
+        <v>102.422546</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="5">
+        <v>43297</v>
+      </c>
+      <c r="C115" s="30">
+        <v>2798.429932</v>
+      </c>
+      <c r="D115" s="6">
+        <v>106.486313</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="5">
+        <v>43298</v>
+      </c>
+      <c r="C116" s="30">
+        <v>2809.5500489999999</v>
+      </c>
+      <c r="D116" s="6">
+        <v>106.409279</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="5">
+        <v>43299</v>
+      </c>
+      <c r="C117" s="30">
+        <v>2815.6201169999999</v>
+      </c>
+      <c r="D117" s="6">
+        <v>107.401138</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="5">
+        <v>43300</v>
+      </c>
+      <c r="C118" s="30">
+        <v>2804.48999</v>
+      </c>
+      <c r="D118" s="6">
+        <v>105.82184599999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="5">
+        <v>43301</v>
+      </c>
+      <c r="C119" s="30">
+        <v>2801.830078</v>
+      </c>
+      <c r="D119" s="6">
+        <v>107.160393</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="5">
+        <v>43304</v>
+      </c>
+      <c r="C120" s="30">
+        <v>2806.9799800000001</v>
+      </c>
+      <c r="D120" s="6">
+        <v>109.153763</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="5">
+        <v>43305</v>
+      </c>
+      <c r="C121" s="30">
+        <v>2820.3999020000001</v>
+      </c>
+      <c r="D121" s="6">
+        <v>109.924156</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="5">
+        <v>43306</v>
+      </c>
+      <c r="C122" s="30">
+        <v>2846.070068</v>
+      </c>
+      <c r="D122" s="6">
+        <v>110.916031</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="5">
+        <v>43307</v>
+      </c>
+      <c r="C123" s="30">
+        <v>2837.4399410000001</v>
+      </c>
+      <c r="D123" s="6">
+        <v>110.598236</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="5">
+        <v>43308</v>
+      </c>
+      <c r="C124" s="30">
+        <v>2818.820068</v>
+      </c>
+      <c r="D124" s="6">
+        <v>111.73455</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" s="5">
+        <v>43311</v>
+      </c>
+      <c r="C125" s="30">
+        <v>2802.6000979999999</v>
+      </c>
+      <c r="D125" s="6">
+        <v>112.408646</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="5">
+        <v>43312</v>
+      </c>
+      <c r="C126" s="30">
+        <v>2816.290039</v>
+      </c>
+      <c r="D126" s="6">
+        <v>110.694534</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="5">
+        <v>43313</v>
+      </c>
+      <c r="C127" s="30">
+        <v>2813.360107</v>
+      </c>
+      <c r="D127" s="6">
+        <v>111.37824999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" s="5">
+        <v>43314</v>
+      </c>
+      <c r="C128" s="30">
+        <v>2827.219971</v>
+      </c>
+      <c r="D128" s="6">
+        <v>111.85011299999999</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="5">
+        <v>43315</v>
+      </c>
+      <c r="C129" s="30">
+        <v>2840.3500979999999</v>
+      </c>
+      <c r="D129" s="6">
+        <v>112.75530999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="5">
+        <v>43318</v>
+      </c>
+      <c r="C130" s="30">
+        <v>2850.3999020000001</v>
+      </c>
+      <c r="D130" s="6">
+        <v>112.78420300000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="5">
+        <v>43319</v>
+      </c>
+      <c r="C131" s="30">
+        <v>2858.4499510000001</v>
+      </c>
+      <c r="D131" s="6">
+        <v>113.19828800000001</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="5">
+        <v>43320</v>
+      </c>
+      <c r="C132" s="30">
+        <v>2857.6999510000001</v>
+      </c>
+      <c r="D132" s="6">
+        <v>113.429405</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="5">
+        <v>43321</v>
+      </c>
+      <c r="C133" s="30">
+        <v>2853.580078</v>
+      </c>
+      <c r="D133" s="6">
+        <v>112.553078</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="5">
+        <v>43322</v>
+      </c>
+      <c r="C134" s="30">
+        <v>2833.280029</v>
+      </c>
+      <c r="D134" s="6">
+        <v>111.445663</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="5">
+        <v>43325</v>
+      </c>
+      <c r="C135" s="30">
+        <v>2821.929932</v>
+      </c>
+      <c r="D135" s="6">
+        <v>109.673767</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="5">
+        <v>43326</v>
+      </c>
+      <c r="C136" s="30">
+        <v>2839.959961</v>
+      </c>
+      <c r="D136" s="6">
+        <v>110.405647</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="5">
+        <v>43327</v>
+      </c>
+      <c r="C137" s="30">
+        <v>2818.3701169999999</v>
+      </c>
+      <c r="D137" s="6">
+        <v>109.490814</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="5">
+        <v>43328</v>
+      </c>
+      <c r="C138" s="30">
+        <v>2840.6899410000001</v>
+      </c>
+      <c r="D138" s="6">
+        <v>110.52119399999999</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="5">
+        <v>43329</v>
+      </c>
+      <c r="C139" s="30">
+        <v>2850.1298830000001</v>
+      </c>
+      <c r="D139" s="6">
+        <v>110.52119399999999</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="5">
+        <v>43332</v>
+      </c>
+      <c r="C140" s="30">
+        <v>2857.0500489999999</v>
+      </c>
+      <c r="D140" s="6">
+        <v>110.376755</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="5">
+        <v>43333</v>
+      </c>
+      <c r="C141" s="30">
+        <v>2862.959961</v>
+      </c>
+      <c r="D141" s="6">
+        <v>111.050827</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="5">
+        <v>43334</v>
+      </c>
+      <c r="C142" s="30">
+        <v>2861.820068</v>
+      </c>
+      <c r="D142" s="6">
+        <v>110.71379899999999</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="5">
+        <v>43335</v>
+      </c>
+      <c r="C143" s="30">
+        <v>2856.9799800000001</v>
+      </c>
+      <c r="D143" s="6">
+        <v>110.48268899999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="5">
+        <v>43336</v>
+      </c>
+      <c r="C144" s="30">
+        <v>2874.6899410000001</v>
+      </c>
+      <c r="D144" s="6">
+        <v>110.43452499999999</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="5">
+        <v>43339</v>
+      </c>
+      <c r="C145" s="30">
+        <v>2896.73999</v>
+      </c>
+      <c r="D145" s="6">
+        <v>112.389381</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="5">
+        <v>43340</v>
+      </c>
+      <c r="C146" s="30">
+        <v>2897.5200199999999</v>
+      </c>
+      <c r="D146" s="6">
+        <v>111.84047700000001</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="5">
+        <v>43341</v>
+      </c>
+      <c r="C147" s="30">
+        <v>2914.040039</v>
+      </c>
+      <c r="D147" s="6">
+        <v>111.474548</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="5">
+        <v>43342</v>
+      </c>
+      <c r="C148" s="30">
+        <v>2901.1298830000001</v>
+      </c>
+      <c r="D148" s="6">
+        <v>110.925659</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="5">
+        <v>43343</v>
+      </c>
+      <c r="C149" s="30">
+        <v>2901.5200199999999</v>
+      </c>
+      <c r="D149" s="6">
+        <v>110.338234</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="5">
+        <v>43347</v>
+      </c>
+      <c r="C150" s="30">
+        <v>2896.719971</v>
+      </c>
+      <c r="D150" s="6">
+        <v>110.88713799999999</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="5">
+        <v>43348</v>
+      </c>
+      <c r="C151" s="30">
+        <v>2888.6000979999999</v>
+      </c>
+      <c r="D151" s="6">
+        <v>110.347855</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="5">
+        <v>43349</v>
+      </c>
+      <c r="C152" s="30">
+        <v>2878.0500489999999</v>
+      </c>
+      <c r="D152" s="6">
+        <v>109.87599899999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="5">
+        <v>43350</v>
+      </c>
+      <c r="C153" s="30">
+        <v>2871.679932</v>
+      </c>
+      <c r="D153" s="6">
+        <v>110.087852</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="5">
+        <v>43353</v>
+      </c>
+      <c r="C154" s="30">
+        <v>2877.1298830000001</v>
+      </c>
+      <c r="D154" s="6">
+        <v>109.500443</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="5">
+        <v>43354</v>
+      </c>
+      <c r="C155" s="30">
+        <v>2887.889893</v>
+      </c>
+      <c r="D155" s="6">
+        <v>110.193787</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="5">
+        <v>43355</v>
+      </c>
+      <c r="C156" s="30">
+        <v>2888.919922</v>
+      </c>
+      <c r="D156" s="6">
+        <v>108.893761</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="5">
+        <v>43356</v>
+      </c>
+      <c r="C157" s="30">
+        <v>2904.179932</v>
+      </c>
+      <c r="D157" s="6">
+        <v>109.317474</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="5">
+        <v>43357</v>
+      </c>
+      <c r="C158" s="30">
+        <v>2904.9799800000001</v>
+      </c>
+      <c r="D158" s="6">
+        <v>109.29821</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="5">
+        <v>43360</v>
+      </c>
+      <c r="C159" s="30">
+        <v>2888.8000489999999</v>
+      </c>
+      <c r="D159" s="6">
+        <v>109.62563299999999</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="5">
+        <v>43361</v>
+      </c>
+      <c r="C160" s="30">
+        <v>2904.3100589999999</v>
+      </c>
+      <c r="D160" s="6">
+        <v>110.068596</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" s="5">
+        <v>43362</v>
+      </c>
+      <c r="C161" s="30">
+        <v>2907.9499510000001</v>
+      </c>
+      <c r="D161" s="6">
+        <v>113.26570100000001</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="5">
+        <v>43363</v>
+      </c>
+      <c r="C162" s="30">
+        <v>2930.75</v>
+      </c>
+      <c r="D162" s="6">
+        <v>114.23828899999999</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="5">
+        <v>43364</v>
+      </c>
+      <c r="C163" s="30">
+        <v>2929.669922</v>
+      </c>
+      <c r="D163" s="6">
+        <v>113.48717499999999</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="5">
+        <v>43367</v>
+      </c>
+      <c r="C164" s="30">
+        <v>2919.3701169999999</v>
+      </c>
+      <c r="D164" s="6">
+        <v>112.39901</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="5">
+        <v>43368</v>
+      </c>
+      <c r="C165" s="30">
+        <v>2915.5600589999999</v>
+      </c>
+      <c r="D165" s="6">
+        <v>112.08123000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="5">
+        <v>43369</v>
+      </c>
+      <c r="C166" s="30">
+        <v>2905.969971</v>
+      </c>
+      <c r="D166" s="6">
+        <v>110.761948</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" s="5">
+        <v>43370</v>
+      </c>
+      <c r="C167" s="30">
+        <v>2914</v>
+      </c>
+      <c r="D167" s="6">
+        <v>110.280449</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" s="5">
+        <v>43371</v>
+      </c>
+      <c r="C168" s="30">
+        <v>2913.9799800000001</v>
+      </c>
+      <c r="D168" s="6">
+        <v>108.662643</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" s="5">
+        <v>43374</v>
+      </c>
+      <c r="C169" s="30">
+        <v>2924.5900879999999</v>
+      </c>
+      <c r="D169" s="6">
+        <v>109.29821</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" s="5">
+        <v>43375</v>
+      </c>
+      <c r="C170" s="30">
+        <v>2923.429932</v>
+      </c>
+      <c r="D170" s="6">
+        <v>109.750809</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" s="5">
+        <v>43376</v>
+      </c>
+      <c r="C171" s="30">
+        <v>2925.51001</v>
+      </c>
+      <c r="D171" s="6">
+        <v>110.781204</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" s="5">
+        <v>43377</v>
+      </c>
+      <c r="C172" s="30">
+        <v>2901.610107</v>
+      </c>
+      <c r="D172" s="6">
+        <v>111.78001399999999</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" s="5">
+        <v>43378</v>
+      </c>
+      <c r="C173" s="30">
+        <v>2885.570068</v>
+      </c>
+      <c r="D173" s="6">
+        <v>111.14969600000001</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="5">
+        <v>43381</v>
+      </c>
+      <c r="C174" s="30">
+        <v>2884.429932</v>
+      </c>
+      <c r="D174" s="6">
+        <v>111.82849899999999</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="5">
+        <v>43382</v>
+      </c>
+      <c r="C175" s="30">
+        <v>2880.3400879999999</v>
+      </c>
+      <c r="D175" s="6">
+        <v>111.052719</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="5">
+        <v>43383</v>
+      </c>
+      <c r="C176" s="30">
+        <v>2785.679932</v>
+      </c>
+      <c r="D176" s="6">
+        <v>108.09507000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="5">
+        <v>43384</v>
+      </c>
+      <c r="C177" s="30">
+        <v>2728.3701169999999</v>
+      </c>
+      <c r="D177" s="6">
+        <v>104.85618599999999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="5">
+        <v>43385</v>
+      </c>
+      <c r="C178" s="30">
+        <v>2767.1298830000001</v>
+      </c>
+      <c r="D178" s="6">
+        <v>103.71191399999999</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="5">
+        <v>43388</v>
+      </c>
+      <c r="C179" s="30">
+        <v>2750.790039</v>
+      </c>
+      <c r="D179" s="6">
+        <v>103.120377</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="5">
+        <v>43389</v>
+      </c>
+      <c r="C180" s="30">
+        <v>2809.919922</v>
+      </c>
+      <c r="D180" s="6">
+        <v>105.331352</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="5">
+        <v>43390</v>
+      </c>
+      <c r="C181" s="30">
+        <v>2809.209961</v>
+      </c>
+      <c r="D181" s="6">
+        <v>106.504723</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" s="5">
+        <v>43391</v>
+      </c>
+      <c r="C182" s="30">
+        <v>2768.780029</v>
+      </c>
+      <c r="D182" s="6">
+        <v>104.817398</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="5">
+        <v>43392</v>
+      </c>
+      <c r="C183" s="30">
+        <v>2767.780029</v>
+      </c>
+      <c r="D183" s="6">
+        <v>104.64284499999999</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="5">
+        <v>43395</v>
+      </c>
+      <c r="C184" s="30">
+        <v>2755.8798830000001</v>
+      </c>
+      <c r="D184" s="6">
+        <v>103.139786</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="5">
+        <v>43396</v>
+      </c>
+      <c r="C185" s="30">
+        <v>2740.6899410000001</v>
+      </c>
+      <c r="D185" s="6">
+        <v>102.063393</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="5">
+        <v>43397</v>
+      </c>
+      <c r="C186" s="30">
+        <v>2656.1000979999999</v>
+      </c>
+      <c r="D186" s="6">
+        <v>100.162727</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" s="5">
+        <v>43398</v>
+      </c>
+      <c r="C187" s="30">
+        <v>2705.570068</v>
+      </c>
+      <c r="D187" s="6">
+        <v>101.685204</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" s="5">
+        <v>43399</v>
+      </c>
+      <c r="C188" s="30">
+        <v>2658.6899410000001</v>
+      </c>
+      <c r="D188" s="6">
+        <v>100.288788</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" s="5">
+        <v>43402</v>
+      </c>
+      <c r="C189" s="30">
+        <v>2641.25</v>
+      </c>
+      <c r="D189" s="6">
+        <v>101.675499</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" s="5">
+        <v>43403</v>
+      </c>
+      <c r="C190" s="30">
+        <v>2682.6298830000001</v>
+      </c>
+      <c r="D190" s="6">
+        <v>103.469482</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" s="5">
+        <v>43404</v>
+      </c>
+      <c r="C191" s="30">
+        <v>2711.73999</v>
+      </c>
+      <c r="D191" s="6">
+        <v>105.71923099999999</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" s="5">
+        <v>43405</v>
+      </c>
+      <c r="C192" s="30">
+        <v>2740.3701169999999</v>
+      </c>
+      <c r="D192" s="6">
+        <v>105.680458</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="5">
+        <v>43406</v>
+      </c>
+      <c r="C193" s="30">
+        <v>2723.0600589999999</v>
+      </c>
+      <c r="D193" s="6">
+        <v>105.098618</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="5">
+        <v>43409</v>
+      </c>
+      <c r="C194" s="30">
+        <v>2738.3100589999999</v>
+      </c>
+      <c r="D194" s="6">
+        <v>105.78711699999999</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="5">
+        <v>43410</v>
+      </c>
+      <c r="C195" s="30">
+        <v>2755.4499510000001</v>
+      </c>
+      <c r="D195" s="6">
+        <v>106.281685</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="5">
+        <v>43411</v>
+      </c>
+      <c r="C196" s="30">
+        <v>2813.889893</v>
+      </c>
+      <c r="D196" s="6">
+        <v>108.104767</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="5">
+        <v>43412</v>
+      </c>
+      <c r="C197" s="30">
+        <v>2806.830078</v>
+      </c>
+      <c r="D197" s="6">
+        <v>108.97751599999999</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="5">
+        <v>43413</v>
+      </c>
+      <c r="C198" s="30">
+        <v>2781.01001</v>
+      </c>
+      <c r="D198" s="6">
+        <v>107.920509</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="5">
+        <v>43416</v>
+      </c>
+      <c r="C199" s="30">
+        <v>2726.219971</v>
+      </c>
+      <c r="D199" s="6">
+        <v>105.65136</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" s="5">
+        <v>43417</v>
+      </c>
+      <c r="C200" s="30">
+        <v>2722.179932</v>
+      </c>
+      <c r="D200" s="6">
+        <v>106.27198</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" s="5">
+        <v>43418</v>
+      </c>
+      <c r="C201" s="30">
+        <v>2701.580078</v>
+      </c>
+      <c r="D201" s="6">
+        <v>104.080414</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="5">
+        <v>43419</v>
+      </c>
+      <c r="C202" s="30">
+        <v>2730.1999510000001</v>
+      </c>
+      <c r="D202" s="6">
+        <v>106.73745700000001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="5">
+        <v>43420</v>
+      </c>
+      <c r="C203" s="30">
+        <v>2736.2700199999999</v>
+      </c>
+      <c r="D203" s="6">
+        <v>106.659882</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="5">
+        <v>43423</v>
+      </c>
+      <c r="C204" s="30">
+        <v>2690.7299800000001</v>
+      </c>
+      <c r="D204" s="6">
+        <v>107.474442</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="5">
+        <v>43424</v>
+      </c>
+      <c r="C205" s="30">
+        <v>2641.889893</v>
+      </c>
+      <c r="D205" s="6">
+        <v>105.166496</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="5">
+        <v>43425</v>
+      </c>
+      <c r="C206" s="30">
+        <v>2649.929932</v>
+      </c>
+      <c r="D206" s="6">
+        <v>104.38102000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="5">
+        <v>43427</v>
+      </c>
+      <c r="C207" s="30">
+        <v>2632.5600589999999</v>
+      </c>
+      <c r="D207" s="6">
+        <v>103.420998</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="5">
+        <v>43430</v>
+      </c>
+      <c r="C208" s="30">
+        <v>2673.4499510000001</v>
+      </c>
+      <c r="D208" s="6">
+        <v>105.951981</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" s="5">
+        <v>43431</v>
+      </c>
+      <c r="C209" s="30">
+        <v>2682.169922</v>
+      </c>
+      <c r="D209" s="6">
+        <v>106.398048</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" s="5">
+        <v>43432</v>
+      </c>
+      <c r="C210" s="30">
+        <v>2743.790039</v>
+      </c>
+      <c r="D210" s="6">
+        <v>107.58111599999999</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" s="5">
+        <v>43433</v>
+      </c>
+      <c r="C211" s="30">
+        <v>2737.8000489999999</v>
+      </c>
+      <c r="D211" s="6">
+        <v>106.72775300000001</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" s="5">
+        <v>43434</v>
+      </c>
+      <c r="C212" s="30">
+        <v>2760.169922</v>
+      </c>
+      <c r="D212" s="6">
+        <v>107.823547</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" s="5">
+        <v>43437</v>
+      </c>
+      <c r="C213" s="30">
+        <v>2790.3701169999999</v>
+      </c>
+      <c r="D213" s="6">
+        <v>108.841751</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" s="5">
+        <v>43438</v>
+      </c>
+      <c r="C214" s="30">
+        <v>2700.0600589999999</v>
+      </c>
+      <c r="D214" s="6">
+        <v>103.98344400000001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" s="5">
+        <v>43440</v>
+      </c>
+      <c r="C215" s="30">
+        <v>2695.9499510000001</v>
+      </c>
+      <c r="D215" s="6">
+        <v>102.005211</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" s="5">
+        <v>43441</v>
+      </c>
+      <c r="C216" s="30">
+        <v>2633.080078</v>
+      </c>
+      <c r="D216" s="6">
+        <v>100.162727</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" s="5">
+        <v>43444</v>
+      </c>
+      <c r="C217" s="30">
+        <v>2637.719971</v>
+      </c>
+      <c r="D217" s="6">
+        <v>98.291167999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" s="5">
+        <v>43445</v>
+      </c>
+      <c r="C218" s="30">
+        <v>2636.780029</v>
+      </c>
+      <c r="D218" s="6">
+        <v>97.331146000000004</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" s="5">
+        <v>43446</v>
+      </c>
+      <c r="C219" s="30">
+        <v>2651.070068</v>
+      </c>
+      <c r="D219" s="6">
+        <v>97.961455999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" s="5">
+        <v>43447</v>
+      </c>
+      <c r="C220" s="30">
+        <v>2650.540039</v>
+      </c>
+      <c r="D220" s="6">
+        <v>98.058425999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" s="5">
+        <v>43448</v>
+      </c>
+      <c r="C221" s="30">
+        <v>2599.9499510000001</v>
+      </c>
+      <c r="D221" s="6">
+        <v>97.253563</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" s="5">
+        <v>43451</v>
+      </c>
+      <c r="C222" s="30">
+        <v>2545.9399410000001</v>
+      </c>
+      <c r="D222" s="6">
+        <v>96.012305999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" s="5">
+        <v>43452</v>
+      </c>
+      <c r="C223" s="30">
+        <v>2546.1599120000001</v>
+      </c>
+      <c r="D223" s="6">
+        <v>95.556540999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" s="5">
+        <v>43453</v>
+      </c>
+      <c r="C224" s="30">
+        <v>2506.959961</v>
+      </c>
+      <c r="D224" s="6">
+        <v>94.344391000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" s="5">
+        <v>43454</v>
+      </c>
+      <c r="C225" s="30">
+        <v>2467.419922</v>
+      </c>
+      <c r="D225" s="6">
+        <v>93.529815999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" s="5">
+        <v>43455</v>
+      </c>
+      <c r="C226" s="30">
+        <v>2416.6201169999999</v>
+      </c>
+      <c r="D226" s="6">
+        <v>91.318848000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" s="5">
+        <v>43458</v>
+      </c>
+      <c r="C227" s="30">
+        <v>2351.1000979999999</v>
+      </c>
+      <c r="D227" s="6">
+        <v>89.350311000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" s="5">
+        <v>43460</v>
+      </c>
+      <c r="C228" s="30">
+        <v>2467.6999510000001</v>
+      </c>
+      <c r="D228" s="6">
+        <v>93.054665</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" s="5">
+        <v>43461</v>
+      </c>
+      <c r="C229" s="30">
+        <v>2488.830078</v>
+      </c>
+      <c r="D229" s="6">
+        <v>94.101951999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" ht="19" thickBot="1">
+      <c r="B230" s="7">
+        <v>43462</v>
+      </c>
+      <c r="C230" s="30">
+        <v>2485.73999</v>
+      </c>
+      <c r="D230" s="8">
+        <v>93.898323000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>